--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H2">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I2">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J2">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.552684602533731</v>
+        <v>10.077153</v>
       </c>
       <c r="N2">
-        <v>9.552684602533731</v>
+        <v>20.154306</v>
       </c>
       <c r="O2">
-        <v>0.08903631199983512</v>
+        <v>0.08561976287781047</v>
       </c>
       <c r="P2">
-        <v>0.08903631199983512</v>
+        <v>0.06709546746404282</v>
       </c>
       <c r="Q2">
-        <v>4.7438337577789</v>
+        <v>5.2183982567085</v>
       </c>
       <c r="R2">
-        <v>4.7438337577789</v>
+        <v>20.873593026834</v>
       </c>
       <c r="S2">
-        <v>0.005845033391196347</v>
+        <v>0.005372793871773398</v>
       </c>
       <c r="T2">
-        <v>0.005845033391196347</v>
+        <v>0.003863360942201842</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H3">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I3">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J3">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.5510556573628</v>
+        <v>56.16712533333333</v>
       </c>
       <c r="N3">
-        <v>52.5510556573628</v>
+        <v>168.501376</v>
       </c>
       <c r="O3">
-        <v>0.4898049482538784</v>
+        <v>0.4772197020892965</v>
       </c>
       <c r="P3">
-        <v>0.4898049482538784</v>
+        <v>0.560955985835208</v>
       </c>
       <c r="Q3">
-        <v>26.09669241756328</v>
+        <v>29.08583693467734</v>
       </c>
       <c r="R3">
-        <v>26.09669241756328</v>
+        <v>174.515021608064</v>
       </c>
       <c r="S3">
-        <v>0.03215459191214502</v>
+        <v>0.02994639327060547</v>
       </c>
       <c r="T3">
-        <v>0.03215459191214502</v>
+        <v>0.0322998784848095</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -664,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H4">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I4">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J4">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.889687520140936</v>
+        <v>0.9207109999999999</v>
       </c>
       <c r="N4">
-        <v>0.889687520140936</v>
+        <v>2.762133</v>
       </c>
       <c r="O4">
-        <v>0.008292380510984035</v>
+        <v>0.007822750880034444</v>
       </c>
       <c r="P4">
-        <v>0.008292380510984035</v>
+        <v>0.009195385087080598</v>
       </c>
       <c r="Q4">
-        <v>0.4418160828632114</v>
+        <v>0.4767851274395</v>
       </c>
       <c r="R4">
-        <v>0.4418160828632114</v>
+        <v>2.860710764637</v>
       </c>
       <c r="S4">
-        <v>0.0005443761077985493</v>
+        <v>0.0004908916653815176</v>
       </c>
       <c r="T4">
-        <v>0.0005443761077985493</v>
+        <v>0.00052947081131778</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -726,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H5">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I5">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J5">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.27656000284942</v>
+        <v>1.441214666666667</v>
       </c>
       <c r="N5">
-        <v>1.27656000284942</v>
+        <v>4.323644</v>
       </c>
       <c r="O5">
-        <v>0.01189824634951984</v>
+        <v>0.01224517063658978</v>
       </c>
       <c r="P5">
-        <v>0.01189824634951984</v>
+        <v>0.01439379333270538</v>
       </c>
       <c r="Q5">
-        <v>0.6339357664693738</v>
+        <v>0.7463250884526667</v>
       </c>
       <c r="R5">
-        <v>0.6339357664693738</v>
+        <v>4.477950530716</v>
       </c>
       <c r="S5">
-        <v>0.000781093080424898</v>
+        <v>0.0007684064466398998</v>
       </c>
       <c r="T5">
-        <v>0.000781093080424898</v>
+        <v>0.0008287954622493745</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H6">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I6">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J6">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.1299349819137</v>
+        <v>6.460321333333333</v>
       </c>
       <c r="N6">
-        <v>6.1299349819137</v>
+        <v>19.380964</v>
       </c>
       <c r="O6">
-        <v>0.05713438957710472</v>
+        <v>0.05488962811961477</v>
       </c>
       <c r="P6">
-        <v>0.05713438957710472</v>
+        <v>0.06452094353850663</v>
       </c>
       <c r="Q6">
-        <v>3.044106835944217</v>
+        <v>3.345441870699333</v>
       </c>
       <c r="R6">
-        <v>3.044106835944217</v>
+        <v>20.072651224196</v>
       </c>
       <c r="S6">
-        <v>0.003750744020758812</v>
+        <v>0.003444422732236007</v>
       </c>
       <c r="T6">
-        <v>0.003750744020758812</v>
+        <v>0.003715119703939197</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H7">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I7">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J7">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.8898378729875</v>
+        <v>42.6300515</v>
       </c>
       <c r="N7">
-        <v>36.8898378729875</v>
+        <v>85.260103</v>
       </c>
       <c r="O7">
-        <v>0.3438337233086778</v>
+        <v>0.362202985396654</v>
       </c>
       <c r="P7">
-        <v>0.3438337233086778</v>
+        <v>0.2838384247424566</v>
       </c>
       <c r="Q7">
-        <v>18.31937989185284</v>
+        <v>22.07573770399175</v>
       </c>
       <c r="R7">
-        <v>18.31937989185284</v>
+        <v>88.30295081596701</v>
       </c>
       <c r="S7">
-        <v>0.02257190969188289</v>
+        <v>0.02272888775754267</v>
       </c>
       <c r="T7">
-        <v>0.02257190969188289</v>
+        <v>0.01634343310349193</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H8">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I8">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J8">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.552684602533731</v>
+        <v>10.077153</v>
       </c>
       <c r="N8">
-        <v>9.552684602533731</v>
+        <v>20.154306</v>
       </c>
       <c r="O8">
-        <v>0.08903631199983512</v>
+        <v>0.08561976287781047</v>
       </c>
       <c r="P8">
-        <v>0.08903631199983512</v>
+        <v>0.06709546746404282</v>
       </c>
       <c r="Q8">
-        <v>8.754315807574407</v>
+        <v>5.315916545815001</v>
       </c>
       <c r="R8">
-        <v>8.754315807574407</v>
+        <v>31.89549927489</v>
       </c>
       <c r="S8">
-        <v>0.01078648005496472</v>
+        <v>0.005473197413305262</v>
       </c>
       <c r="T8">
-        <v>0.01078648005496472</v>
+        <v>0.005903335663018202</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H9">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I9">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J9">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>52.5510556573628</v>
+        <v>56.16712533333333</v>
       </c>
       <c r="N9">
-        <v>52.5510556573628</v>
+        <v>168.501376</v>
       </c>
       <c r="O9">
-        <v>0.4898049482538784</v>
+        <v>0.4772197020892965</v>
       </c>
       <c r="P9">
-        <v>0.4898049482538784</v>
+        <v>0.560955985835208</v>
       </c>
       <c r="Q9">
-        <v>48.15908369087697</v>
+        <v>29.62937556771556</v>
       </c>
       <c r="R9">
-        <v>48.15908369087697</v>
+        <v>266.66438010944</v>
       </c>
       <c r="S9">
-        <v>0.05933838887187141</v>
+        <v>0.03050601346304779</v>
       </c>
       <c r="T9">
-        <v>0.05933838887187141</v>
+        <v>0.04935521879088466</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H10">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I10">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J10">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.889687520140936</v>
+        <v>0.9207109999999999</v>
       </c>
       <c r="N10">
-        <v>0.889687520140936</v>
+        <v>2.762133</v>
       </c>
       <c r="O10">
-        <v>0.008292380510984035</v>
+        <v>0.007822750880034444</v>
       </c>
       <c r="P10">
-        <v>0.008292380510984035</v>
+        <v>0.009195385087080598</v>
       </c>
       <c r="Q10">
-        <v>0.8153315895413986</v>
+        <v>0.4856950012383334</v>
       </c>
       <c r="R10">
-        <v>0.8153315895413986</v>
+        <v>4.371255011145</v>
       </c>
       <c r="S10">
-        <v>0.001004596832246074</v>
+        <v>0.0005000651536799829</v>
       </c>
       <c r="T10">
-        <v>0.001004596832246074</v>
+        <v>0.0008090478652502079</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H11">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I11">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J11">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.27656000284942</v>
+        <v>1.441214666666667</v>
       </c>
       <c r="N11">
-        <v>1.27656000284942</v>
+        <v>4.323644</v>
       </c>
       <c r="O11">
-        <v>0.01189824634951984</v>
+        <v>0.01224517063658978</v>
       </c>
       <c r="P11">
-        <v>0.01189824634951984</v>
+        <v>0.01439379333270538</v>
       </c>
       <c r="Q11">
-        <v>1.169871075749509</v>
+        <v>0.7602719629844445</v>
       </c>
       <c r="R11">
-        <v>1.169871075749509</v>
+        <v>6.842447666860001</v>
       </c>
       <c r="S11">
-        <v>0.001441436578576955</v>
+        <v>0.0007827659643172633</v>
       </c>
       <c r="T11">
-        <v>0.001441436578576955</v>
+        <v>0.001266425240313146</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H12">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I12">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J12">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.1299349819137</v>
+        <v>6.460321333333333</v>
       </c>
       <c r="N12">
-        <v>6.1299349819137</v>
+        <v>19.380964</v>
       </c>
       <c r="O12">
-        <v>0.05713438957710472</v>
+        <v>0.05488962811961477</v>
       </c>
       <c r="P12">
-        <v>0.05713438957710472</v>
+        <v>0.06452094353850663</v>
       </c>
       <c r="Q12">
-        <v>5.61762362564937</v>
+        <v>3.407959476962223</v>
       </c>
       <c r="R12">
-        <v>5.61762362564937</v>
+        <v>30.67163529266</v>
       </c>
       <c r="S12">
-        <v>0.006921658588320297</v>
+        <v>0.003508790033327944</v>
       </c>
       <c r="T12">
-        <v>0.006921658588320297</v>
+        <v>0.005676818440926316</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H13">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I13">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J13">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.8898378729875</v>
+        <v>42.6300515</v>
       </c>
       <c r="N13">
-        <v>36.8898378729875</v>
+        <v>85.260103</v>
       </c>
       <c r="O13">
-        <v>0.3438337233086778</v>
+        <v>0.362202985396654</v>
       </c>
       <c r="P13">
-        <v>0.3438337233086778</v>
+        <v>0.2838384247424566</v>
       </c>
       <c r="Q13">
-        <v>33.80675739516139</v>
+        <v>22.48827581736584</v>
       </c>
       <c r="R13">
-        <v>33.80675739516139</v>
+        <v>134.929654904195</v>
       </c>
       <c r="S13">
-        <v>0.04165441621953276</v>
+        <v>0.02315363154641694</v>
       </c>
       <c r="T13">
-        <v>0.04165441621953276</v>
+        <v>0.02497327403248245</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.15154740738719</v>
+        <v>0.9548856666666667</v>
       </c>
       <c r="H14">
-        <v>6.15154740738719</v>
+        <v>2.864657</v>
       </c>
       <c r="I14">
-        <v>0.8132052746502813</v>
+        <v>0.1157119372972211</v>
       </c>
       <c r="J14">
-        <v>0.8132052746502813</v>
+        <v>0.1592631742399304</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.552684602533731</v>
+        <v>10.077153</v>
       </c>
       <c r="N14">
-        <v>9.552684602533731</v>
+        <v>20.154306</v>
       </c>
       <c r="O14">
-        <v>0.08903631199983512</v>
+        <v>0.08561976287781047</v>
       </c>
       <c r="P14">
-        <v>0.08903631199983512</v>
+        <v>0.06709546746404282</v>
       </c>
       <c r="Q14">
-        <v>58.7637922003039</v>
+        <v>9.622528960506999</v>
       </c>
       <c r="R14">
-        <v>58.7637922003039</v>
+        <v>57.735173763042</v>
       </c>
       <c r="S14">
-        <v>0.07240479855367406</v>
+        <v>0.009907228633520145</v>
       </c>
       <c r="T14">
-        <v>0.07240479855367406</v>
+        <v>0.01068583712543544</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.15154740738719</v>
+        <v>0.9548856666666667</v>
       </c>
       <c r="H15">
-        <v>6.15154740738719</v>
+        <v>2.864657</v>
       </c>
       <c r="I15">
-        <v>0.8132052746502813</v>
+        <v>0.1157119372972211</v>
       </c>
       <c r="J15">
-        <v>0.8132052746502813</v>
+        <v>0.1592631742399304</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.5510556573628</v>
+        <v>56.16712533333333</v>
       </c>
       <c r="N15">
-        <v>52.5510556573628</v>
+        <v>168.501376</v>
       </c>
       <c r="O15">
-        <v>0.4898049482538784</v>
+        <v>0.4772197020892965</v>
       </c>
       <c r="P15">
-        <v>0.4898049482538784</v>
+        <v>0.560955985835208</v>
       </c>
       <c r="Q15">
-        <v>323.27031018451</v>
+        <v>53.63318291867022</v>
       </c>
       <c r="R15">
-        <v>323.27031018451</v>
+        <v>482.698646268032</v>
       </c>
       <c r="S15">
-        <v>0.398311967469862</v>
+        <v>0.05522001624515523</v>
       </c>
       <c r="T15">
-        <v>0.398311967469862</v>
+        <v>0.08933963091300469</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.15154740738719</v>
+        <v>0.9548856666666667</v>
       </c>
       <c r="H16">
-        <v>6.15154740738719</v>
+        <v>2.864657</v>
       </c>
       <c r="I16">
-        <v>0.8132052746502813</v>
+        <v>0.1157119372972211</v>
       </c>
       <c r="J16">
-        <v>0.8132052746502813</v>
+        <v>0.1592631742399304</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.889687520140936</v>
+        <v>0.9207109999999999</v>
       </c>
       <c r="N16">
-        <v>0.889687520140936</v>
+        <v>2.762133</v>
       </c>
       <c r="O16">
-        <v>0.008292380510984035</v>
+        <v>0.007822750880034444</v>
       </c>
       <c r="P16">
-        <v>0.008292380510984035</v>
+        <v>0.009195385087080598</v>
       </c>
       <c r="Q16">
-        <v>5.472954957907713</v>
+        <v>0.8791737370423334</v>
       </c>
       <c r="R16">
-        <v>5.472954957907713</v>
+        <v>7.912563633381001</v>
       </c>
       <c r="S16">
-        <v>0.006743407570939412</v>
+        <v>0.000905185659322327</v>
       </c>
       <c r="T16">
-        <v>0.006743407570939412</v>
+        <v>0.001464486217326975</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.15154740738719</v>
+        <v>0.9548856666666667</v>
       </c>
       <c r="H17">
-        <v>6.15154740738719</v>
+        <v>2.864657</v>
       </c>
       <c r="I17">
-        <v>0.8132052746502813</v>
+        <v>0.1157119372972211</v>
       </c>
       <c r="J17">
-        <v>0.8132052746502813</v>
+        <v>0.1592631742399304</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.27656000284942</v>
+        <v>1.441214666666667</v>
       </c>
       <c r="N17">
-        <v>1.27656000284942</v>
+        <v>4.323644</v>
       </c>
       <c r="O17">
-        <v>0.01189824634951984</v>
+        <v>0.01224517063658978</v>
       </c>
       <c r="P17">
-        <v>0.01189824634951984</v>
+        <v>0.01439379333270538</v>
       </c>
       <c r="Q17">
-        <v>7.852819375902532</v>
+        <v>1.376195227789778</v>
       </c>
       <c r="R17">
-        <v>7.852819375902532</v>
+        <v>12.385757050108</v>
       </c>
       <c r="S17">
-        <v>0.009675716690517991</v>
+        <v>0.00141691241689485</v>
       </c>
       <c r="T17">
-        <v>0.009675716690517991</v>
+        <v>0.002292401215520206</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.15154740738719</v>
+        <v>0.9548856666666667</v>
       </c>
       <c r="H18">
-        <v>6.15154740738719</v>
+        <v>2.864657</v>
       </c>
       <c r="I18">
-        <v>0.8132052746502813</v>
+        <v>0.1157119372972211</v>
       </c>
       <c r="J18">
-        <v>0.8132052746502813</v>
+        <v>0.1592631742399304</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.1299349819137</v>
+        <v>6.460321333333333</v>
       </c>
       <c r="N18">
-        <v>6.1299349819137</v>
+        <v>19.380964</v>
       </c>
       <c r="O18">
-        <v>0.05713438957710472</v>
+        <v>0.05488962811961477</v>
       </c>
       <c r="P18">
-        <v>0.05713438957710472</v>
+        <v>0.06452094353850663</v>
       </c>
       <c r="Q18">
-        <v>37.70858564544326</v>
+        <v>6.168868243260889</v>
       </c>
       <c r="R18">
-        <v>37.70858564544326</v>
+        <v>55.519814189348</v>
       </c>
       <c r="S18">
-        <v>0.04646198696802561</v>
+        <v>0.006351385207244649</v>
       </c>
       <c r="T18">
-        <v>0.04646198696802561</v>
+        <v>0.0102758102728979</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9548856666666667</v>
+      </c>
+      <c r="H19">
+        <v>2.864657</v>
+      </c>
+      <c r="I19">
+        <v>0.1157119372972211</v>
+      </c>
+      <c r="J19">
+        <v>0.1592631742399304</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>42.6300515</v>
+      </c>
+      <c r="N19">
+        <v>85.260103</v>
+      </c>
+      <c r="O19">
+        <v>0.362202985396654</v>
+      </c>
+      <c r="P19">
+        <v>0.2838384247424566</v>
+      </c>
+      <c r="Q19">
+        <v>40.70682514661183</v>
+      </c>
+      <c r="R19">
+        <v>244.240950879671</v>
+      </c>
+      <c r="S19">
+        <v>0.04191120913508393</v>
+      </c>
+      <c r="T19">
+        <v>0.04520500849574525</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.252014</v>
+      </c>
+      <c r="H20">
+        <v>12.504028</v>
+      </c>
+      <c r="I20">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J20">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.077153</v>
+      </c>
+      <c r="N20">
+        <v>20.154306</v>
+      </c>
+      <c r="O20">
+        <v>0.08561976287781047</v>
+      </c>
+      <c r="P20">
+        <v>0.06709546746404282</v>
+      </c>
+      <c r="Q20">
+        <v>63.00250163614199</v>
+      </c>
+      <c r="R20">
+        <v>252.010006544568</v>
+      </c>
+      <c r="S20">
+        <v>0.06486654295921167</v>
+      </c>
+      <c r="T20">
+        <v>0.04664293373338735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.252014</v>
+      </c>
+      <c r="H21">
+        <v>12.504028</v>
+      </c>
+      <c r="I21">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J21">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>56.16712533333333</v>
+      </c>
+      <c r="N21">
+        <v>168.501376</v>
+      </c>
+      <c r="O21">
+        <v>0.4772197020892965</v>
+      </c>
+      <c r="P21">
+        <v>0.560955985835208</v>
+      </c>
+      <c r="Q21">
+        <v>351.1576539237547</v>
+      </c>
+      <c r="R21">
+        <v>2106.945923542528</v>
+      </c>
+      <c r="S21">
+        <v>0.3615472791104881</v>
+      </c>
+      <c r="T21">
+        <v>0.3899612576465092</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.252014</v>
+      </c>
+      <c r="H22">
+        <v>12.504028</v>
+      </c>
+      <c r="I22">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J22">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.9207109999999999</v>
+      </c>
+      <c r="N22">
+        <v>2.762133</v>
+      </c>
+      <c r="O22">
+        <v>0.007822750880034444</v>
+      </c>
+      <c r="P22">
+        <v>0.009195385087080598</v>
+      </c>
+      <c r="Q22">
+        <v>5.756298061953999</v>
+      </c>
+      <c r="R22">
+        <v>34.537788371724</v>
+      </c>
+      <c r="S22">
+        <v>0.005926608401650618</v>
+      </c>
+      <c r="T22">
+        <v>0.006392380193185635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.252014</v>
+      </c>
+      <c r="H23">
+        <v>12.504028</v>
+      </c>
+      <c r="I23">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J23">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.441214666666667</v>
+      </c>
+      <c r="N23">
+        <v>4.323644</v>
+      </c>
+      <c r="O23">
+        <v>0.01224517063658978</v>
+      </c>
+      <c r="P23">
+        <v>0.01439379333270538</v>
+      </c>
+      <c r="Q23">
+        <v>9.010494273005332</v>
+      </c>
+      <c r="R23">
+        <v>54.062965638032</v>
+      </c>
+      <c r="S23">
+        <v>0.00927708580873777</v>
+      </c>
+      <c r="T23">
+        <v>0.01000617141462265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>6.15154740738719</v>
-      </c>
-      <c r="H19">
-        <v>6.15154740738719</v>
-      </c>
-      <c r="I19">
-        <v>0.8132052746502813</v>
-      </c>
-      <c r="J19">
-        <v>0.8132052746502813</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>36.8898378729875</v>
-      </c>
-      <c r="N19">
-        <v>36.8898378729875</v>
-      </c>
-      <c r="O19">
-        <v>0.3438337233086778</v>
-      </c>
-      <c r="P19">
-        <v>0.3438337233086778</v>
-      </c>
-      <c r="Q19">
-        <v>226.92958652651</v>
-      </c>
-      <c r="R19">
-        <v>226.92958652651</v>
-      </c>
-      <c r="S19">
-        <v>0.2796073973972621</v>
-      </c>
-      <c r="T19">
-        <v>0.2796073973972621</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.252014</v>
+      </c>
+      <c r="H24">
+        <v>12.504028</v>
+      </c>
+      <c r="I24">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J24">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.460321333333333</v>
+      </c>
+      <c r="N24">
+        <v>19.380964</v>
+      </c>
+      <c r="O24">
+        <v>0.05488962811961477</v>
+      </c>
+      <c r="P24">
+        <v>0.06452094353850663</v>
+      </c>
+      <c r="Q24">
+        <v>40.39001942049866</v>
+      </c>
+      <c r="R24">
+        <v>242.340116522992</v>
+      </c>
+      <c r="S24">
+        <v>0.04158503014680617</v>
+      </c>
+      <c r="T24">
+        <v>0.04485319512074322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.252014</v>
+      </c>
+      <c r="H25">
+        <v>12.504028</v>
+      </c>
+      <c r="I25">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J25">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>42.6300515</v>
+      </c>
+      <c r="N25">
+        <v>85.260103</v>
+      </c>
+      <c r="O25">
+        <v>0.362202985396654</v>
+      </c>
+      <c r="P25">
+        <v>0.2838384247424566</v>
+      </c>
+      <c r="Q25">
+        <v>266.523678798721</v>
+      </c>
+      <c r="R25">
+        <v>1066.094715194884</v>
+      </c>
+      <c r="S25">
+        <v>0.2744092569576105</v>
+      </c>
+      <c r="T25">
+        <v>0.197316709110737</v>
       </c>
     </row>
   </sheetData>
